--- a/medicine/Psychotrope/Sachets_de_nicotine/Sachets_de_nicotine.xlsx
+++ b/medicine/Psychotrope/Sachets_de_nicotine/Sachets_de_nicotine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sachets de nicotine, aussi appelés nicopouches ou nicopods, sont des sachets fabriqués en fibre de cellulose. Ils ne contiennent aucune trace de tabac (feuille, poussière ou de tige de tabac), uniquement de la nicotine synthétique ou extraite du tabac, des fibres végétales et des arômes. Ils s’utilisent de la même manière que le snus suédois, duquel ils sont inspirés sur la forme. À la différence du snus traditionnel, les sachets de nicotine sont généralement aromatisés, le plus souvent avec des saveurs fraîches, mentholées, fruitées, gourmandes, cocktails ou goût tabac.
 En France, les sachets de nicotine sont commercialisés généralement deux fois moins cher qu’un paquet de cigarettes. L’apparition de ces produits est très récente en France. 
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sachets de nicotine sont des produits relativement récents, au contraire du snus suédois dont ils sont inspirés. Cependant, le mode d’utilisation commun avec leur ancêtre leur a permis de connaître une grande popularité dès leur apparition en 2018.
 Les premiers sachets de nicotine sans tabac étaient en vente en Norvège de 2014 à 2018, sous le nom d'Epok. En juin 2018, la Direction norvégienne de la santé a contraint la British American Tobacco Norway à retirer Epok de la vente au risque de s'exposer à des amendes quotidiennes de 150 000 NOK, pour des raisons qualifiées de « ridicules » par la presse et les politiciens norvégiens. La direction norvégienne de la santé a fait valoir que, puisque Epok ne contenait pas de tabac, il s'agissait d'une nouvelle forme de produit à base de nicotine, distincte des autres formes de snus autorisées en Norvège. Dans les jours qui ont suivi l'interdiction, Epok a été réintroduit sur le marché norvégien, avec une quantité infime de tabac blanchi ajouté, pour être considéré comme une forme déjà approuvée de produits à base de nicotine. Comme les sachets de nicotine sans tabac n'y étaient pas interdits, la marque Epok a été abandonnée en Suède et remplacée par Lyft, un produit par ailleurs identique qui contient des fibres de pin et d'eucalyptus au lieu de la charge de tabac. En février 2020, Epok est toujours vendu par les épiceries norvégiennes.
@@ -545,7 +559,9 @@
           <t>Mode d'utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sachets de nicotine s’utilisent sans combustion. En lieu et place, l'utilisateur place un sachet sous la lèvre supérieure au contact de la gencive. La nicotine et les arômes sont alors diffusés par voie orale au contact de la muqueuse buccale. Une fois la nicotine entièrement consommée, l’utilisateur se débarrasse du sachet usagé. 
 A l’image des fabricants de snus traditionnel, de nombreuses marques de sachets de nicotine incluent un compartiment hermétique aux boîtes, ce dernier faisant office de « poubelle » pour les sachets usagés. 
@@ -579,14 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sachets de nicotine
-Les sachets de nicotine contiennent des fibres végétales, des arômes de qualité alimentaire et de la nicotine. La teneur en nicotine varie d'une marque de sachet à l'autre. 
-Différence avec les autres substituts nicotiniques
-Contrairement aux produits du vapotage, ils ne nécessitent ni batteries ni autres pièces détachées de maintenance.
-À la différence du tabac à chiquer, l’utilisateur n’a pas besoin de cracher des résidus, le sachet restant scellé en permanence.
-Différence avec le snus traditionnel
-La différence entre sachets de nicotine et le snus ne se limite pas à l’absence de tabac, les premiers ont également des durées d’utilisation et de conservation plus longues que le snus traditionnel contenant du tabac.
-Les sachets de nicotine sont en outre généralement aromatisés, contrairement au snus traditionnel.
+          <t>Sachets de nicotine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sachets de nicotine contiennent des fibres végétales, des arômes de qualité alimentaire et de la nicotine. La teneur en nicotine varie d'une marque de sachet à l'autre. 
 </t>
         </is>
       </c>
@@ -612,13 +627,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Recherche</t>
+          <t>Composition</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les sachets contiennent de la nicotine, un produit chimique qui crée une forte dépendance.
-A ce jour, il n'existe pas de tests indépendants sur les compositions des sachets de nicotine et leurs biomarqueurs d'effets. Aucune étude n’a pour l’instant analysé l’efficacité de la diffusion de nicotine via les gencives. De même, aucune étude n’a déterminé si les fumeurs délaissent totalement la cigarette au profit des sachets de nicotine, ou s’ils continuent d’utiliser simultanément les deux produits.
+          <t>Différence avec les autres substituts nicotiniques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement aux produits du vapotage, ils ne nécessitent ni batteries ni autres pièces détachées de maintenance.
+À la différence du tabac à chiquer, l’utilisateur n’a pas besoin de cracher des résidus, le sachet restant scellé en permanence.
 </t>
         </is>
       </c>
@@ -644,13 +665,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Controverse</t>
+          <t>Composition</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Du fait de leur large éventail de saveurs et de leur mode d’utilisation discret et sans combustion, les sachets de nicotine sont susceptibles d’attirer les jeunes ou les non-fumeurs.
-Les groupes de défense opposés à l'introduction des sachets de nicotine au Kenya ont protesté contre le fait qu'ils pouvaient augmenter le risque de cancer, de maladies cardiaques et d'effets néfastes sur la reproduction ou le développement. L'Alliance kenyane pour le contrôle du tabac a ainsi affirmé qu'étant donné les niveaux plus élevés de certains produits chimiques toxiques, ainsi que ce que la Food and Drug Administration américaine a déclaré être un manque de données médicales prouvant que les sachets de nicotine sont plus sûrs que les cigarettes (comme le prétend le fabricant British American Tobacco), le gouvernement ne devrait pas autoriser le produit.
+          <t>Différence avec le snus traditionnel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La différence entre sachets de nicotine et le snus ne se limite pas à l’absence de tabac, les premiers ont également des durées d’utilisation et de conservation plus longues que le snus traditionnel contenant du tabac.
+Les sachets de nicotine sont en outre généralement aromatisés, contrairement au snus traditionnel.
 </t>
         </is>
       </c>
@@ -676,10 +703,80 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Recherche</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sachets contiennent de la nicotine, un produit chimique qui crée une forte dépendance.
+A ce jour, il n'existe pas de tests indépendants sur les compositions des sachets de nicotine et leurs biomarqueurs d'effets. Aucune étude n’a pour l’instant analysé l’efficacité de la diffusion de nicotine via les gencives. De même, aucune étude n’a déterminé si les fumeurs délaissent totalement la cigarette au profit des sachets de nicotine, ou s’ils continuent d’utiliser simultanément les deux produits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sachets_de_nicotine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sachets_de_nicotine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Controverse</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du fait de leur large éventail de saveurs et de leur mode d’utilisation discret et sans combustion, les sachets de nicotine sont susceptibles d’attirer les jeunes ou les non-fumeurs.
+Les groupes de défense opposés à l'introduction des sachets de nicotine au Kenya ont protesté contre le fait qu'ils pouvaient augmenter le risque de cancer, de maladies cardiaques et d'effets néfastes sur la reproduction ou le développement. L'Alliance kenyane pour le contrôle du tabac a ainsi affirmé qu'étant donné les niveaux plus élevés de certains produits chimiques toxiques, ainsi que ce que la Food and Drug Administration américaine a déclaré être un manque de données médicales prouvant que les sachets de nicotine sont plus sûrs que les cigarettes (comme le prétend le fabricant British American Tobacco), le gouvernement ne devrait pas autoriser le produit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sachets_de_nicotine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sachets_de_nicotine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l’introduction très récente des sachets de nicotine n’a pas encore donné lieu à une classification.
 Dans les pharmacies norvégiennes, les sachets de nicotine sont également vendus comme substituts nicotiniques pour les personnes engagées dans une démarche de sevrage tabagique. Approuvés par l'Agence norvégienne des médicaments, ils sont commercialisés sans ordonnance sous la marque Zonnic.
